--- a/ME/GanttChart.xlsx
+++ b/ME/GanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C66A278-DE1D-4BFC-AFB9-21EA85F0FF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="114_{288B0655-6FA9-4C7A-9FB1-8A030F4E6AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B0D96A7-D468-4DAB-B232-262B60EE3479}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -452,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +529,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -683,7 +689,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,6 +910,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
@@ -1495,9 +1504,9 @@
   </sheetPr>
   <dimension ref="A1:BL43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC37" sqref="BC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1543,340 +1552,340 @@
         <v>30</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82">
+      <c r="D3" s="78"/>
+      <c r="E3" s="83">
         <v>44044</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="14">
-        <v>6</v>
-      </c>
-      <c r="I4" s="79">
+        <v>12</v>
+      </c>
+      <c r="I4" s="80">
         <f>I5</f>
-        <v>44074</v>
-      </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+        <v>44116</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="80">
         <f>P5</f>
-        <v>44081</v>
-      </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+        <v>44123</v>
+      </c>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="80">
         <f>W5</f>
-        <v>44088</v>
-      </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+        <v>44130</v>
+      </c>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="80">
         <f>AD5</f>
-        <v>44095</v>
-      </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+        <v>44137</v>
+      </c>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="80">
         <f>AK5</f>
-        <v>44102</v>
-      </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+        <v>44144</v>
+      </c>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="80">
         <f>AR5</f>
-        <v>44109</v>
-      </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+        <v>44151</v>
+      </c>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="80">
         <f>AY5</f>
-        <v>44116</v>
-      </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+        <v>44158</v>
+      </c>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="80">
         <f>BF5</f>
-        <v>44123</v>
-      </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+        <v>44165</v>
+      </c>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="I5" s="15">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44074</v>
+        <v>44116</v>
       </c>
       <c r="J5" s="16">
         <f>I5+1</f>
-        <v>44075</v>
+        <v>44117</v>
       </c>
       <c r="K5" s="16">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44076</v>
+        <v>44118</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="0"/>
-        <v>44077</v>
+        <v>44119</v>
       </c>
       <c r="M5" s="16">
         <f t="shared" si="0"/>
-        <v>44078</v>
+        <v>44120</v>
       </c>
       <c r="N5" s="16">
         <f t="shared" si="0"/>
-        <v>44079</v>
+        <v>44121</v>
       </c>
       <c r="O5" s="17">
         <f t="shared" si="0"/>
-        <v>44080</v>
+        <v>44122</v>
       </c>
       <c r="P5" s="15">
         <f>O5+1</f>
-        <v>44081</v>
+        <v>44123</v>
       </c>
       <c r="Q5" s="16">
         <f>P5+1</f>
-        <v>44082</v>
+        <v>44124</v>
       </c>
       <c r="R5" s="16">
         <f t="shared" si="0"/>
-        <v>44083</v>
+        <v>44125</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" si="0"/>
-        <v>44084</v>
+        <v>44126</v>
       </c>
       <c r="T5" s="16">
         <f t="shared" si="0"/>
-        <v>44085</v>
+        <v>44127</v>
       </c>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>44086</v>
+        <v>44128</v>
       </c>
       <c r="V5" s="17">
         <f t="shared" si="0"/>
-        <v>44087</v>
+        <v>44129</v>
       </c>
       <c r="W5" s="15">
         <f>V5+1</f>
-        <v>44088</v>
+        <v>44130</v>
       </c>
       <c r="X5" s="16">
         <f>W5+1</f>
-        <v>44089</v>
+        <v>44131</v>
       </c>
       <c r="Y5" s="16">
         <f t="shared" si="0"/>
-        <v>44090</v>
+        <v>44132</v>
       </c>
       <c r="Z5" s="16">
         <f t="shared" si="0"/>
-        <v>44091</v>
+        <v>44133</v>
       </c>
       <c r="AA5" s="16">
         <f t="shared" si="0"/>
-        <v>44092</v>
+        <v>44134</v>
       </c>
       <c r="AB5" s="16">
         <f t="shared" si="0"/>
-        <v>44093</v>
+        <v>44135</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="0"/>
-        <v>44094</v>
+        <v>44136</v>
       </c>
       <c r="AD5" s="15">
         <f>AC5+1</f>
-        <v>44095</v>
+        <v>44137</v>
       </c>
       <c r="AE5" s="16">
         <f>AD5+1</f>
-        <v>44096</v>
+        <v>44138</v>
       </c>
       <c r="AF5" s="16">
         <f t="shared" si="0"/>
-        <v>44097</v>
+        <v>44139</v>
       </c>
       <c r="AG5" s="16">
         <f t="shared" si="0"/>
-        <v>44098</v>
+        <v>44140</v>
       </c>
       <c r="AH5" s="16">
         <f t="shared" si="0"/>
-        <v>44099</v>
+        <v>44141</v>
       </c>
       <c r="AI5" s="16">
         <f t="shared" si="0"/>
-        <v>44100</v>
+        <v>44142</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="0"/>
-        <v>44101</v>
+        <v>44143</v>
       </c>
       <c r="AK5" s="15">
         <f>AJ5+1</f>
-        <v>44102</v>
+        <v>44144</v>
       </c>
       <c r="AL5" s="16">
         <f>AK5+1</f>
-        <v>44103</v>
+        <v>44145</v>
       </c>
       <c r="AM5" s="16">
         <f t="shared" si="0"/>
-        <v>44104</v>
+        <v>44146</v>
       </c>
       <c r="AN5" s="16">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44147</v>
       </c>
       <c r="AO5" s="16">
         <f t="shared" si="0"/>
-        <v>44106</v>
+        <v>44148</v>
       </c>
       <c r="AP5" s="16">
         <f t="shared" si="0"/>
-        <v>44107</v>
+        <v>44149</v>
       </c>
       <c r="AQ5" s="17">
         <f t="shared" si="0"/>
-        <v>44108</v>
+        <v>44150</v>
       </c>
       <c r="AR5" s="15">
         <f>AQ5+1</f>
-        <v>44109</v>
+        <v>44151</v>
       </c>
       <c r="AS5" s="16">
         <f>AR5+1</f>
-        <v>44110</v>
+        <v>44152</v>
       </c>
       <c r="AT5" s="16">
         <f t="shared" si="0"/>
-        <v>44111</v>
+        <v>44153</v>
       </c>
       <c r="AU5" s="16">
         <f t="shared" si="0"/>
-        <v>44112</v>
+        <v>44154</v>
       </c>
       <c r="AV5" s="16">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44155</v>
       </c>
       <c r="AW5" s="16">
         <f t="shared" si="0"/>
-        <v>44114</v>
+        <v>44156</v>
       </c>
       <c r="AX5" s="17">
         <f t="shared" si="0"/>
-        <v>44115</v>
+        <v>44157</v>
       </c>
       <c r="AY5" s="15">
         <f>AX5+1</f>
-        <v>44116</v>
+        <v>44158</v>
       </c>
       <c r="AZ5" s="16">
         <f>AY5+1</f>
-        <v>44117</v>
+        <v>44159</v>
       </c>
       <c r="BA5" s="16">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44118</v>
+        <v>44160</v>
       </c>
       <c r="BB5" s="16">
         <f t="shared" si="1"/>
-        <v>44119</v>
+        <v>44161</v>
       </c>
       <c r="BC5" s="16">
         <f t="shared" si="1"/>
-        <v>44120</v>
+        <v>44162</v>
       </c>
       <c r="BD5" s="16">
         <f t="shared" si="1"/>
-        <v>44121</v>
+        <v>44163</v>
       </c>
       <c r="BE5" s="17">
         <f t="shared" si="1"/>
-        <v>44122</v>
+        <v>44164</v>
       </c>
       <c r="BF5" s="15">
         <f>BE5+1</f>
-        <v>44123</v>
+        <v>44165</v>
       </c>
       <c r="BG5" s="16">
         <f>BF5+1</f>
-        <v>44124</v>
+        <v>44166</v>
       </c>
       <c r="BH5" s="16">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44125</v>
+        <v>44167</v>
       </c>
       <c r="BI5" s="16">
         <f t="shared" si="2"/>
-        <v>44126</v>
+        <v>44168</v>
       </c>
       <c r="BJ5" s="16">
         <f t="shared" si="2"/>
-        <v>44127</v>
+        <v>44169</v>
       </c>
       <c r="BK5" s="16">
         <f t="shared" si="2"/>
-        <v>44128</v>
+        <v>44170</v>
       </c>
       <c r="BL5" s="17">
         <f t="shared" si="2"/>
-        <v>44129</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2895,12 +2904,12 @@
         <v>44085</v>
       </c>
       <c r="F17" s="33">
-        <v>44100</v>
+        <v>44129</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
@@ -2971,10 +2980,10 @@
       </c>
       <c r="E18" s="33">
         <f>F17</f>
-        <v>44100</v>
+        <v>44129</v>
       </c>
       <c r="F18" s="33">
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -3049,12 +3058,12 @@
         <v>44085</v>
       </c>
       <c r="F19" s="33">
-        <v>44100</v>
+        <v>44129</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="64"/>
@@ -3125,10 +3134,10 @@
       </c>
       <c r="E20" s="33">
         <f>F19</f>
-        <v>44100</v>
+        <v>44129</v>
       </c>
       <c r="F20" s="33">
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -3432,7 +3441,7 @@
         <v>44100</v>
       </c>
       <c r="F24" s="33">
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -3583,7 +3592,7 @@
         <v>44100</v>
       </c>
       <c r="F26" s="33">
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
@@ -3734,7 +3743,7 @@
         <v>44100</v>
       </c>
       <c r="F28" s="33">
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -3803,18 +3812,18 @@
         <v>50</v>
       </c>
       <c r="D29" s="32">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="33">
         <v>44085</v>
       </c>
       <c r="F29" s="33">
-        <v>44100</v>
+        <v>44129</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
@@ -3822,7 +3831,7 @@
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
       <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
+      <c r="O29" s="76"/>
       <c r="P29" s="64"/>
       <c r="Q29" s="64"/>
       <c r="R29" s="64"/>
@@ -3885,10 +3894,10 @@
       </c>
       <c r="E30" s="33">
         <f>F29</f>
-        <v>44100</v>
+        <v>44129</v>
       </c>
       <c r="F30" s="33">
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
@@ -4036,12 +4045,12 @@
         <v>44100</v>
       </c>
       <c r="F32" s="40">
-        <v>44120</v>
+        <v>44143</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I32" s="64"/>
       <c r="J32" s="64"/>
@@ -4111,16 +4120,15 @@
         <v>0</v>
       </c>
       <c r="E33" s="40">
-        <f>F32</f>
-        <v>44120</v>
+        <v>44136</v>
       </c>
       <c r="F33" s="40">
-        <v>44134</v>
+        <v>44151</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
